--- a/static/examples/config.xlsx
+++ b/static/examples/config.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\yinchi\digital-hospitals\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C94D532-485A-4D94-AD79-26D1B522B55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F7EE6-B42A-4282-9B77-32977D94F22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16848" yWindow="2676" windowWidth="41268" windowHeight="21480" tabRatio="766" activeTab="6" xr2:uid="{A6D689E8-9444-4F2C-A237-DAB84596CE57}"/>
+    <workbookView xWindow="30624" yWindow="0" windowWidth="30912" windowHeight="25296" tabRatio="766" firstSheet="1" activeTab="9" xr2:uid="{A6D689E8-9444-4F2C-A237-DAB84596CE57}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Arrival Schedules" sheetId="1" r:id="rId2"/>
     <sheet name="Resource Allocation" sheetId="3" r:id="rId3"/>
     <sheet name="Task Durations" sheetId="4" r:id="rId4"/>
-    <sheet name="Locations" sheetId="5" r:id="rId5"/>
-    <sheet name="Batch Sizes" sheetId="6" r:id="rId6"/>
-    <sheet name="Reception Variables" sheetId="7" r:id="rId7"/>
-    <sheet name="Cut-up Variables" sheetId="8" r:id="rId8"/>
-    <sheet name="Processing Variables" sheetId="9" r:id="rId9"/>
-    <sheet name="Microtomy Variables" sheetId="10" r:id="rId10"/>
-    <sheet name="Specimen Bootstrap" sheetId="11" r:id="rId11"/>
-    <sheet name="Bootstrap Mock Generator" sheetId="12" r:id="rId12"/>
+    <sheet name="Batch Sizes" sheetId="6" r:id="rId5"/>
+    <sheet name="Reception Variables" sheetId="7" r:id="rId6"/>
+    <sheet name="Cut-up Variables" sheetId="8" r:id="rId7"/>
+    <sheet name="Processing Variables" sheetId="9" r:id="rId8"/>
+    <sheet name="Microtomy Variables" sheetId="10" r:id="rId9"/>
+    <sheet name="Locations" sheetId="5" r:id="rId10"/>
+    <sheet name="Bootstrap Mock Generator" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="LocationNames">Locations!$A$7:$A$22</definedName>
@@ -34,6 +33,7 @@
     <definedName name="NumSlidesLevels">'Microtomy Variables'!$F$5:$I$5</definedName>
     <definedName name="NumSlidesMegas">'Microtomy Variables'!$F$8:$I$8</definedName>
     <definedName name="NumSlidesSerials">'Microtomy Variables'!$F$6:$I$6</definedName>
+    <definedName name="OptSpecimenBootstrap">Main!$D$2</definedName>
     <definedName name="ProbBMSCutup">'Cut-up Variables'!$B$6</definedName>
     <definedName name="ProbBMSCutupUrgent">'Cut-up Variables'!$C$6</definedName>
     <definedName name="ProbDecalcBone">'Processing Variables'!$B$5</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="294">
   <si>
     <t>CANCER PATHWAY</t>
   </si>
@@ -111,27 +111,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Scenario name</t>
-  </si>
-  <si>
-    <t>scenario_001</t>
-  </si>
-  <si>
-    <t>Simulation replications</t>
-  </si>
-  <si>
-    <t>Simulation length</t>
-  </si>
-  <si>
-    <t>weeks</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
     <t>Sheet links</t>
   </si>
   <si>
@@ -885,9 +864,6 @@
     <t>Cut-up Variables</t>
   </si>
   <si>
-    <t>Simulation start date</t>
-  </si>
-  <si>
     <t>Bone machine</t>
   </si>
   <si>
@@ -936,90 +912,6 @@
     <t>Megas</t>
   </si>
   <si>
-    <t>Specimen ID</t>
-  </si>
-  <si>
-    <t>Enter the startup state of the simulation.</t>
-  </si>
-  <si>
-    <t>Assign an ID to each specimen in progress. Avoid using "Specimen.###" (where # denotes a numeric digit) as these are reserved for the randomly generated specimens.</t>
-  </si>
-  <si>
-    <t>Slide counts</t>
-  </si>
-  <si>
-    <t>Timestamps</t>
-  </si>
-  <si>
-    <t>Each stage has a "In" timestamp representing the time that a specimen arrives at a stage (delivered by courier/runner) and an "Out" timestamp representing the time that a specimen becomes ready for delivery to the next stage (except for Reporting which is the final stage). Leave blank for events that have not yet occured.</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Out</t>
-  </si>
-  <si>
-    <t>In2</t>
-  </si>
-  <si>
-    <t>Out3</t>
-  </si>
-  <si>
-    <t>In4</t>
-  </si>
-  <si>
-    <t>Out5</t>
-  </si>
-  <si>
-    <t>In6</t>
-  </si>
-  <si>
-    <t>Out7</t>
-  </si>
-  <si>
-    <t>In8</t>
-  </si>
-  <si>
-    <t>Slide Counts</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>Out2</t>
-  </si>
-  <si>
-    <t>In3</t>
-  </si>
-  <si>
-    <t>Out4</t>
-  </si>
-  <si>
-    <t>In5</t>
-  </si>
-  <si>
-    <t>Out6</t>
-  </si>
-  <si>
-    <t>In7</t>
-  </si>
-  <si>
-    <t>Out8</t>
-  </si>
-  <si>
-    <t>In9</t>
-  </si>
-  <si>
-    <t>Click and drag the bottom-right (dark blue) corner of the table to extend.</t>
-  </si>
-  <si>
-    <t>Number of slides in each block. Input as a list of numbers, seperated by commas, e.g. "5,4,20" for a three-block specimen. For specimens that have completed cut-up but not microtomy, enter a series of zeros, e.g. "0,0,0". Leave blank if a specimen has not yet completed cut-up.</t>
-  </si>
-  <si>
-    <t>Example001</t>
-  </si>
-  <si>
     <t>Large surgicals</t>
   </si>
   <si>
@@ -1041,35 +933,40 @@
     <t>Stage</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>In/Out</t>
-  </si>
-  <si>
-    <t>e.g. "Scanning - Out" for specimens that have completed all stages up to Scanning but have not yet been received by QC.</t>
-  </si>
-  <si>
-    <t>Enter the number of specimens that have completed each checkpoint but no further,</t>
-  </si>
-  <si>
-    <t>The difference between each stage's In and Out entries is the number of specimens currently in progress in that stage.</t>
-  </si>
-  <si>
     <t>Bootstrap Mock Generator</t>
   </si>
   <si>
     <t>Mock Specimen Generator for Bootstrap</t>
+  </si>
+  <si>
+    <t>Enter the number of specimens waiting at the start of each stage.</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>NonCancer</t>
+  </si>
+  <si>
+    <t>Optional features</t>
+  </si>
+  <si>
+    <t>Travel times</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1183,7 +1080,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1241,104 +1138,13 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor theme="8" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1354,7 +1160,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,12 +1171,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
@@ -1400,36 +1200,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1448,23 +1219,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1479,7 +1238,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="59">
     <dxf>
       <font>
         <color theme="1" tint="0.499984740745262"/>
@@ -1489,57 +1248,6 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     </dxf>
     <dxf>
       <font>
@@ -2256,7 +1964,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9A4B20D-3F98-4390-A1AA-BE2163924516}" name="ArrivalScheduleCancer" displayName="ArrivalScheduleCancer" ref="A5:H30" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9A4B20D-3F98-4390-A1AA-BE2163924516}" name="ArrivalScheduleCancer" displayName="ArrivalScheduleCancer" ref="A5:H30" totalsRowCount="1" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A5:H29" xr:uid="{D9A4B20D-3F98-4390-A1AA-BE2163924516}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2268,35 +1976,35 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7350D1D9-F8B6-4987-A214-66CF5A64B8A5}" name="Hour" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{219F99DA-3AEA-49B7-8F51-4D68AF4FC630}" name="MON" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{83C9DF8F-6A22-47BB-9A53-D21CD1763A10}" name="TUE" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{B2D5A0AF-62DF-40EE-9FBB-CAB923E5F038}" name="WED" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{17F475BE-7452-4E8F-ADDE-BC4DBCE3A11F}" name="THU" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{7733B9DA-F1FE-43F8-A2ED-6DB5741EC8F9}" name="FRI" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{2A427723-6BF2-4204-95C9-17522E7AEE05}" name="SAT" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{BB46A8FA-59AE-4781-AB06-690D152B8294}" name="SUN" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{7350D1D9-F8B6-4987-A214-66CF5A64B8A5}" name="Hour" totalsRowLabel="Total" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{219F99DA-3AEA-49B7-8F51-4D68AF4FC630}" name="MON" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{83C9DF8F-6A22-47BB-9A53-D21CD1763A10}" name="TUE" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{B2D5A0AF-62DF-40EE-9FBB-CAB923E5F038}" name="WED" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{17F475BE-7452-4E8F-ADDE-BC4DBCE3A11F}" name="THU" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{7733B9DA-F1FE-43F8-A2ED-6DB5741EC8F9}" name="FRI" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{2A427723-6BF2-4204-95C9-17522E7AEE05}" name="SAT" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{BB46A8FA-59AE-4781-AB06-690D152B8294}" name="SUN" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{52BC4049-99DB-4D01-9703-E24B52563E24}" name="Table10" displayName="Table10" ref="J4:K8" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{52BC4049-99DB-4D01-9703-E24B52563E24}" name="Table10" displayName="Table10" ref="J4:K8" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="J4:K8" xr:uid="{52BC4049-99DB-4D01-9703-E24B52563E24}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{93614872-3ECA-48F8-84CF-DB2B0FBF66F8}" name="Optional task"/>
-    <tableColumn id="2" xr3:uid="{D1F8E63E-DBB4-468A-90D5-04519D672FA5}" name="Probability" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{D1F8E63E-DBB4-468A-90D5-04519D672FA5}" name="Probability" dataDxfId="7" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{74BA3D64-8366-4D01-A299-0298D3EC8FDA}" name="Table12" displayName="Table12" ref="E10:J12" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{74BA3D64-8366-4D01-A299-0298D3EC8FDA}" name="Table12" displayName="Table12" ref="E10:J12" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="E10:J12" xr:uid="{74BA3D64-8366-4D01-A299-0298D3EC8FDA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2318,14 +2026,14 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{21169EE8-7865-4484-B6C1-F7F4174178BF}" name="Table13" displayName="Table13" ref="A4:B7" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{21169EE8-7865-4484-B6C1-F7F4174178BF}" name="Table13" displayName="Table13" ref="A4:B7" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A4:B7" xr:uid="{21169EE8-7865-4484-B6C1-F7F4174178BF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{73221085-C71D-47B2-BCF2-A52A78BCA5E8}" name="Decalc type"/>
-    <tableColumn id="2" xr3:uid="{17B03355-16DD-4EA6-B774-9C3514A78624}" name="PROBABILITY" dataDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{17B03355-16DD-4EA6-B774-9C3514A78624}" name="PROBABILITY" dataDxfId="4" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2346,14 +2054,14 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5B3B1648-A399-4A0F-B557-B277E269494A}" name="Table14" displayName="Table14" ref="A8:B10" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5B3B1648-A399-4A0F-B557-B277E269494A}" name="Table14" displayName="Table14" ref="A8:B10" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A8:B10" xr:uid="{5B3B1648-A399-4A0F-B557-B277E269494A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3371D705-AC4B-4B45-8249-01D753611723}" name="Small surgicals"/>
-    <tableColumn id="2" xr3:uid="{29DDF538-738C-4B00-B77A-6F484BE12BEF}" name="PROBABILITY" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{29DDF538-738C-4B00-B77A-6F484BE12BEF}" name="PROBABILITY" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>1-B8</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2362,7 +2070,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E009BA75-0828-47B9-A835-3E327602993B}" name="Table15" displayName="Table15" ref="E4:I8" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E009BA75-0828-47B9-A835-3E327602993B}" name="Table15" displayName="Table15" ref="E4:I8" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="E4:I8" xr:uid="{E009BA75-0828-47B9-A835-3E327602993B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2382,55 +2090,23 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{89612FC9-367C-4F87-9527-2480FD9836A9}" name="Table16" displayName="Table16" ref="A11:S12" totalsRowShown="0">
-  <autoFilter ref="A11:S12" xr:uid="{89612FC9-367C-4F87-9527-2480FD9836A9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9933D30-3042-4342-B403-178317778DB5}" name="MockCounts" displayName="MockCounts" ref="A5:C14" totalsRowShown="0">
+  <autoFilter ref="A5:C14" xr:uid="{A9933D30-3042-4342-B403-178317778DB5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-    <filterColumn colId="17" hiddenButton="1"/>
-    <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{25585211-7C2E-41E2-B05B-01E87D5F3443}" name="Specimen ID"/>
-    <tableColumn id="19" xr3:uid="{5C7A8202-05C6-446D-ADBD-BAAE6E249A30}" name="Slide Counts"/>
-    <tableColumn id="2" xr3:uid="{2BED6E82-56FC-4658-998F-66A6A5EFB109}" name="In" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{F0901D4B-EA49-431F-9899-1E6FF91BCEF2}" name="Out" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{B614EBA0-E8FA-4F27-83BE-7959C32D0578}" name="In2" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{54A34219-8A3C-4D95-B588-1D89AF048C9F}" name="Out2" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{42862B92-06C9-4A91-AAF4-D48BDBBF1D70}" name="In3" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{F1298A92-107F-483B-8B28-ECCA78740951}" name="Out3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{145E37A1-9920-43A1-9AE4-9AC124CFAF0D}" name="In4" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{E4BCAB65-21DA-4D2F-8ACB-85633DA4C169}" name="Out4" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{AB4D6577-019A-4707-A000-0B40498418CB}" name="In5" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{A93C1A7F-118A-49C1-90EE-4E940518CDAA}" name="Out5" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{3FE3204E-0D09-443A-AD3A-F277AA1AD32B}" name="In6" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{392BF7A1-D9E9-4107-B690-C306B764AD11}" name="Out6" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{9098B08D-0655-44C9-89DF-B1263735D3CE}" name="In7" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{FD7B8D59-0E42-478F-A7B5-9717BA127093}" name="Out7" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{4F7EC10B-F19B-4A63-B1AA-0849F8797052}" name="In8" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{990C8820-CE0D-4F1D-9286-E4645801391E}" name="Out8" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{2BD6265D-3DCD-4DF7-A9DE-719F94800F05}" name="In9" dataDxfId="1"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B61476CB-CD70-4A1A-AD15-11C8C3F56210}" name="Stage"/>
+    <tableColumn id="2" xr3:uid="{F13B7E52-4B8E-4163-B4DD-09258EDE8CCC}" name="Cancer"/>
+    <tableColumn id="3" xr3:uid="{60EF22DD-97F4-42EE-8ED8-454BF77AF7FD}" name="NonCancer"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A04E175A-691F-42A6-B0FD-D8AE03D1AF4E}" name="ArrivalScheduleNonCancer" displayName="ArrivalScheduleNonCancer" ref="A33:H58" totalsRowCount="1" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A04E175A-691F-42A6-B0FD-D8AE03D1AF4E}" name="ArrivalScheduleNonCancer" displayName="ArrivalScheduleNonCancer" ref="A33:H58" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A33:H57" xr:uid="{A04E175A-691F-42A6-B0FD-D8AE03D1AF4E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2442,21 +2118,21 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{58AE24B2-CF0B-4AFF-AD23-1D8AA95A971D}" name="Hour" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{17269147-BC92-4DA5-85F0-2DC791A852DA}" name="MON" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{E0DBE3A7-A15B-452E-B851-03318B74AFBF}" name="TUE" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{B8FF3C3E-EC87-47C4-897E-73313CCDB643}" name="WED" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{75899D3C-7210-43D8-B30C-AE9C7804546A}" name="THU" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{164F21C2-4F05-4029-8D71-4C61C44DB2B2}" name="FRI" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{5C1BEF8E-BE64-48CB-BDAD-B3C9D65C6C47}" name="SAT" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{4D8EC97E-B2A5-407C-8B79-0C3D3329FF40}" name="SUN" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{58AE24B2-CF0B-4AFF-AD23-1D8AA95A971D}" name="Hour" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{17269147-BC92-4DA5-85F0-2DC791A852DA}" name="MON" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{E0DBE3A7-A15B-452E-B851-03318B74AFBF}" name="TUE" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{B8FF3C3E-EC87-47C4-897E-73313CCDB643}" name="WED" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{75899D3C-7210-43D8-B30C-AE9C7804546A}" name="THU" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{164F21C2-4F05-4029-8D71-4C61C44DB2B2}" name="FRI" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{5C1BEF8E-BE64-48CB-BDAD-B3C9D65C6C47}" name="SAT" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{4D8EC97E-B2A5-407C-8B79-0C3D3329FF40}" name="SUN" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8044FDCD-1459-43F7-A8A7-F1B818505D17}" name="Resources" displayName="Resources" ref="A7:BD22" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8044FDCD-1459-43F7-A8A7-F1B818505D17}" name="Resources" displayName="Resources" ref="A7:BD22" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A7:BD22" xr:uid="{8044FDCD-1459-43F7-A8A7-F1B818505D17}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2578,7 +2254,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3AAF623E-DD54-49ED-BFB4-661425BC1FFB}" name="TaskDurations" displayName="TaskDurations" ref="A6:G54" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3AAF623E-DD54-49ED-BFB4-661425BC1FFB}" name="TaskDurations" displayName="TaskDurations" ref="A6:G54" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A6:G54" xr:uid="{3AAF623E-DD54-49ED-BFB4-661425BC1FFB}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2602,7 +2278,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CDD83FDD-0DAC-48CE-BA32-101B6EAA1818}" name="UnitOptions" displayName="UnitOptions" ref="H6:H9" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CDD83FDD-0DAC-48CE-BA32-101B6EAA1818}" name="UnitOptions" displayName="UnitOptions" ref="H6:H9" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="H6:H9" xr:uid="{CDD83FDD-0DAC-48CE-BA32-101B6EAA1818}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
@@ -2614,7 +2290,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{411B29F1-BFA3-440C-9206-CC7C0D1AB7E9}" name="DistOptions" displayName="DistOptions" ref="I6:I9" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{411B29F1-BFA3-440C-9206-CC7C0D1AB7E9}" name="DistOptions" displayName="DistOptions" ref="I6:I9" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="I6:I9" xr:uid="{411B29F1-BFA3-440C-9206-CC7C0D1AB7E9}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
@@ -2626,7 +2302,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB727589-4119-42C6-BE1F-FBC3EDB316EC}" name="BatchSizes" displayName="BatchSizes" ref="A4:C18" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB727589-4119-42C6-BE1F-FBC3EDB316EC}" name="BatchSizes" displayName="BatchSizes" ref="A4:C18" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A4:C18" xr:uid="{AB727589-4119-42C6-BE1F-FBC3EDB316EC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2642,7 +2318,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{923DE52D-0BEE-410C-B0F0-A811545F486C}" name="Table4" displayName="Table4" ref="A4:E6" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{923DE52D-0BEE-410C-B0F0-A811545F486C}" name="Table4" displayName="Table4" ref="A4:E6" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A4:E6" xr:uid="{923DE52D-0BEE-410C-B0F0-A811545F486C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2651,11 +2327,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E95C06DC-4B45-4320-B266-AAC991404F28}" name="RECEPTION ARRIVALS" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{D18D4B23-9B88-404C-AD72-41520B8E40F8}" name="Urgent" dataDxfId="32" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{4BC9CAA0-438F-4DC6-A7DD-1209C9E8FE16}" name="Priority" dataDxfId="31" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{BFC972E6-A265-4032-A746-A46A61206A16}" name="Routine" dataDxfId="30" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{387554A4-B2A9-4FE6-BA12-9123DE59F198}" name="Total" dataDxfId="29" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{E95C06DC-4B45-4320-B266-AAC991404F28}" name="RECEPTION ARRIVALS" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{D18D4B23-9B88-404C-AD72-41520B8E40F8}" name="Urgent" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{4BC9CAA0-438F-4DC6-A7DD-1209C9E8FE16}" name="Priority" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{BFC972E6-A265-4032-A746-A46A61206A16}" name="Routine" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{387554A4-B2A9-4FE6-BA12-9123DE59F198}" name="Total" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>SUM(B5:D5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2664,14 +2340,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{374D6B2C-9138-44EF-9641-5747EF319EF6}" name="Table9" displayName="Table9" ref="G4:H6" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{374D6B2C-9138-44EF-9641-5747EF319EF6}" name="Table9" displayName="Table9" ref="G4:H6" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="G4:H6" xr:uid="{374D6B2C-9138-44EF-9641-5747EF319EF6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{840ECB9A-F985-4883-8259-B333B20B4D0C}" name="SPECIMEN SOURCE" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{03B17B78-F9D0-4DF5-ABED-377199BA0E5A}" name="Probability" dataDxfId="26" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{840ECB9A-F985-4883-8259-B333B20B4D0C}" name="SPECIMEN SOURCE" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{03B17B78-F9D0-4DF5-ABED-377199BA0E5A}" name="Probability" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>1-H4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2979,890 +2655,1190 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F1" s="31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="C1" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" t="s">
+        <v>283</v>
+      </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="50">
-        <f ca="1">TODAY()</f>
-        <v>45236</v>
-      </c>
-      <c r="C3" s="50"/>
+        <v>293</v>
+      </c>
+      <c r="E2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>291</v>
+      </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F6" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F7" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F9" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F10" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F11" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F12" s="32" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F13" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F14" s="8" t="s">
-        <v>326</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{0FC63314-77E2-4196-963F-E4DAC4FD6424}">
-      <formula1>$D$2:$D$4</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Positive integer expected" error="Input should be a positive integer greater than zero." sqref="B4:B5" xr:uid="{CA42D8E8-B326-4AD0-AF15-F4BEED361966}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{189766B0-6CB8-4254-9D9A-8BAC8D26BF4B}">
-      <formula1>367</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{7A3496AB-002A-4C22-B74F-D14540E7AC01}">
+      <formula1>$E$2:$E$3</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" location="'Arrival Schedules'!A1" display="Arrival Schedules" xr:uid="{C8270C65-28CF-4E6F-9582-F183D91F4284}"/>
-    <hyperlink ref="F3" location="'Resource Allocation'!A1" display="Resource Allocation" xr:uid="{249C1240-7706-4FDE-8098-CC5808019E01}"/>
-    <hyperlink ref="F4" location="'Task Durations'!A1" display="Task Durations" xr:uid="{03FE70FA-E566-44C6-9F9A-FB1E6267AAFE}"/>
-    <hyperlink ref="F5" location="Locations!A1" display="Locations" xr:uid="{5261B3F6-6C7F-46B3-993A-C3484F7645E0}"/>
-    <hyperlink ref="F6" location="'Batch Sizes'!A1" display="Batch Sizes" xr:uid="{D6E460D9-DDFA-41B6-9D56-3B545773B32E}"/>
-    <hyperlink ref="F8" location="'Reception Variables'!A1" display="Reception Variables" xr:uid="{9E3EDA37-DFD0-45BE-A4F9-3E133C2003D2}"/>
-    <hyperlink ref="F9" location="'Cut-up Variables'!A1" display="Cut-up Variables" xr:uid="{74B638BB-9692-45CD-83B1-84E1864E2D6F}"/>
-    <hyperlink ref="F10" location="'Processing Variables'!A1" display="Processing Variables" xr:uid="{9911F93C-F368-4491-A4C9-D6D25C52A0AB}"/>
-    <hyperlink ref="F11" location="'Microtomy Variables'!A1" display="Microtomy Variables" xr:uid="{A14917F9-9A08-47BB-BD1E-A35E360D0F3C}"/>
-    <hyperlink ref="F13" location="'Specimen Bootstrap'!A1" display="Specimen Bootstrap" xr:uid="{A7C7A723-034C-4288-948D-207274CF6F6B}"/>
-    <hyperlink ref="F14" location="'Bootstrap Mock Generator'!A1" display="Bootstrap Mock Generator" xr:uid="{FBA6849C-90D6-4633-B1E9-3D2FFC8C7E6A}"/>
+    <hyperlink ref="A2" location="'Arrival Schedules'!A1" display="Arrival Schedules" xr:uid="{C8270C65-28CF-4E6F-9582-F183D91F4284}"/>
+    <hyperlink ref="A3" location="'Resource Allocation'!A1" display="Resource Allocation" xr:uid="{249C1240-7706-4FDE-8098-CC5808019E01}"/>
+    <hyperlink ref="A4" location="'Task Durations'!A1" display="Task Durations" xr:uid="{03FE70FA-E566-44C6-9F9A-FB1E6267AAFE}"/>
+    <hyperlink ref="A5" location="Locations!A1" display="Locations" xr:uid="{5261B3F6-6C7F-46B3-993A-C3484F7645E0}"/>
+    <hyperlink ref="A6" location="'Batch Sizes'!A1" display="Batch Sizes" xr:uid="{D6E460D9-DDFA-41B6-9D56-3B545773B32E}"/>
+    <hyperlink ref="A8" location="'Reception Variables'!A1" display="Reception Variables" xr:uid="{9E3EDA37-DFD0-45BE-A4F9-3E133C2003D2}"/>
+    <hyperlink ref="A9" location="'Cut-up Variables'!A1" display="Cut-up Variables" xr:uid="{74B638BB-9692-45CD-83B1-84E1864E2D6F}"/>
+    <hyperlink ref="A10" location="'Processing Variables'!A1" display="Processing Variables" xr:uid="{9911F93C-F368-4491-A4C9-D6D25C52A0AB}"/>
+    <hyperlink ref="A11" location="'Microtomy Variables'!A1" display="Microtomy Variables" xr:uid="{A14917F9-9A08-47BB-BD1E-A35E360D0F3C}"/>
+    <hyperlink ref="A13" location="'Bootstrap Mock Generator'!A1" display="Bootstrap Mock Generator" xr:uid="{FBA6849C-90D6-4633-B1E9-3D2FFC8C7E6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E86032-278F-46C2-8A5F-140671769490}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871FFE81-D409-4F79-B38C-13C5390DFCFD}">
   <sheetPr>
-    <tabColor theme="2"/>
+    <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S58" sqref="S58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD59" sqref="AD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="1:21" ht="109.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E3" s="30"/>
-      <c r="F3" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="E4" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="E5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F5" t="s">
-        <v>265</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="I5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14">
+        <v>20</v>
+      </c>
+      <c r="H7" s="15">
+        <v>20</v>
+      </c>
+      <c r="I7" s="14">
+        <v>7</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="E6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>185</v>
+      </c>
+      <c r="U7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>186</v>
+      </c>
+      <c r="U8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>188</v>
+      </c>
+      <c r="U9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>189</v>
+      </c>
+      <c r="U10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B10" s="20">
-        <f>1-B9</f>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="15">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>190</v>
+      </c>
+      <c r="U11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12">
+        <v>60</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>128</v>
+      </c>
+      <c r="U12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15">
+        <v>11</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>10</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="15">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>191</v>
+      </c>
+      <c r="U13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>192</v>
+      </c>
+      <c r="U14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>193</v>
+      </c>
+      <c r="U15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16" s="14">
+        <v>120</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="15">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>30</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>197</v>
+      </c>
+      <c r="U19" s="17">
         <v>0.25</v>
       </c>
     </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20">
+        <v>45</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>198</v>
+      </c>
+      <c r="U20" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="15">
+        <v>17</v>
+      </c>
+      <c r="T21" t="s">
+        <v>199</v>
+      </c>
+      <c r="U21" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="T22" t="s">
+        <v>200</v>
+      </c>
+      <c r="U22" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F3:I3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:R4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Back to Main" xr:uid="{2435FF21-1A48-4E70-B1B5-DDCFD5411F03}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Back to Main" xr:uid="{F9D52F82-6B55-43C5-A16D-C75DDFE79706}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807973C2-27C6-4758-8F01-66FD25F4CB13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7079C13B-644F-449A-BA47-509F162EDD1B}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A3" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="58" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-    </row>
-    <row r="7" spans="1:19" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="C5" t="s">
         <v>289</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-    </row>
-    <row r="8" spans="1:19" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="54" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54" t="s">
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="R10" s="54"/>
-      <c r="S10" s="37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B12" t="s">
-        <v>302</v>
-      </c>
-      <c r="C12" s="38">
-        <v>45201.6875</v>
-      </c>
-      <c r="D12" s="38">
-        <v>45201.739583333336</v>
-      </c>
-      <c r="E12" s="38">
-        <v>45201.75</v>
-      </c>
-      <c r="F12" s="38">
-        <v>45202.464583333334</v>
-      </c>
-      <c r="G12" s="38">
-        <v>45202.478472222225</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Timestamp expected" error="Datetime between 1901-01-01 00:00:00 and 9999-12-31 23:59:59 expected." sqref="C12:S12" xr:uid="{40D9E776-BC29-426D-96C6-778D4803233A}">
-      <formula1>367</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Back to Main" xr:uid="{D389CC85-05F7-49CD-BCB0-091DECBE3933}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Back to Main" xr:uid="{F38EC88B-38B6-477D-87AA-7785BE19DE51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7079C13B-644F-449A-BA47-509F162EDD1B}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C9" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C13" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C15" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C16" s="44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C17" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C18" s="44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C19" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
-      <c r="B21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C21" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C22" s="44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C23" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="40">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Back to Main" xr:uid="{F38EC88B-38B6-477D-87AA-7785BE19DE51}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3882,50 +3858,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="A1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="A4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -3953,7 +3929,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4614,16 +4590,16 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -4651,7 +4627,7 @@
         <v>8</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5368,132 +5344,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="A1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:56" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
+      <c r="A4" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
+      <c r="A5" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
+      <c r="A6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -5516,154 +5492,154 @@
       <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="Q7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="R7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="S7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="T7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="U7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="V7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="W7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="X7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="Y7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="Z7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="AA7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="AB7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="AC7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="AD7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="AE7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="AF7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="AG7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AH7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="AI7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AJ7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AK7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AL7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AM7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AN7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AH7" s="9" t="s">
+      <c r="AO7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AI7" s="9" t="s">
+      <c r="AP7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AJ7" s="9" t="s">
+      <c r="AQ7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AK7" s="9" t="s">
+      <c r="AR7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AL7" s="9" t="s">
+      <c r="AS7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AM7" s="9" t="s">
+      <c r="AT7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AN7" s="9" t="s">
+      <c r="AU7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AO7" s="9" t="s">
+      <c r="AV7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AP7" s="9" t="s">
+      <c r="AW7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AQ7" s="9" t="s">
+      <c r="AX7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AR7" s="9" t="s">
+      <c r="AY7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AS7" s="9" t="s">
+      <c r="AZ7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AT7" s="9" t="s">
+      <c r="BA7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AU7" s="9" t="s">
+      <c r="BB7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AV7" s="9" t="s">
+      <c r="BC7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AW7" s="9" t="s">
+      <c r="BD7" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="AX7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BB7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD7" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5764,7 +5740,7 @@
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5841,7 +5817,7 @@
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5918,7 +5894,7 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5995,7 +5971,7 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6072,7 +6048,7 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6149,7 +6125,7 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6226,7 +6202,7 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6303,7 +6279,7 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -6380,7 +6356,7 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6550,7 +6526,7 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -6720,7 +6696,7 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6890,7 +6866,7 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7060,7 +7036,7 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7230,7 +7206,7 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7449,100 +7425,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="A1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="11"/>
+      <c r="A4" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="A5" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>154</v>
+        <v>138</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -7554,27 +7530,27 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>155</v>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -7586,24 +7562,24 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -7615,24 +7591,24 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -7644,18 +7620,18 @@
         <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -7667,18 +7643,18 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -7690,18 +7666,18 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -7713,18 +7689,18 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7736,18 +7712,18 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -7759,18 +7735,18 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -7782,18 +7758,18 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -7805,18 +7781,18 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>24</v>
@@ -7828,18 +7804,18 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7851,18 +7827,18 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -7874,18 +7850,18 @@
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -7897,18 +7873,18 @@
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -7920,18 +7896,18 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -7943,18 +7919,18 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <f>2+18/60</f>
@@ -7969,18 +7945,18 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <f>13+5/6</f>
@@ -7995,18 +7971,18 @@
         <v>13.833333333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <f>15+5/6</f>
@@ -8021,18 +7997,18 @@
         <v>15.833333333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -8044,18 +8020,18 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C28">
         <v>30</v>
@@ -8067,18 +8043,18 @@
         <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -8090,18 +8066,18 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -8113,18 +8089,18 @@
         <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -8136,18 +8112,18 @@
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -8159,18 +8135,18 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>1.5</v>
@@ -8182,18 +8158,18 @@
         <v>2.5</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -8205,18 +8181,18 @@
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -8228,18 +8204,18 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -8251,18 +8227,18 @@
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <v>35</v>
@@ -8274,18 +8250,18 @@
         <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C38">
         <v>35</v>
@@ -8297,18 +8273,18 @@
         <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -8320,18 +8296,18 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -8343,18 +8319,18 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -8366,18 +8342,18 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -8389,18 +8365,18 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -8412,18 +8388,18 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -8435,18 +8411,18 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -8458,18 +8434,18 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -8481,18 +8457,18 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -8504,18 +8480,18 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C48">
         <v>35</v>
@@ -8527,18 +8503,18 @@
         <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>35</v>
@@ -8550,18 +8526,18 @@
         <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -8573,18 +8549,18 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -8596,18 +8572,18 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -8619,18 +8595,18 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C53">
         <v>60</v>
@@ -8642,18 +8618,18 @@
         <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <v>15</v>
@@ -8665,10 +8641,10 @@
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -8707,905 +8683,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871FFE81-D409-4F79-B38C-13C5390DFCFD}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:U22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-    </row>
-    <row r="5" spans="1:21" ht="109.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17">
-        <v>10</v>
-      </c>
-      <c r="E7" s="16">
-        <v>13</v>
-      </c>
-      <c r="F7" s="17">
-        <v>14</v>
-      </c>
-      <c r="G7" s="16">
-        <v>20</v>
-      </c>
-      <c r="H7" s="17">
-        <v>20</v>
-      </c>
-      <c r="I7" s="16">
-        <v>7</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-      <c r="L7" s="17">
-        <v>3</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="17">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="17">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>192</v>
-      </c>
-      <c r="U7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>193</v>
-      </c>
-      <c r="U8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>10</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="17">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="17">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="R9" s="17">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
-        <v>195</v>
-      </c>
-      <c r="U9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="16">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>196</v>
-      </c>
-      <c r="U10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17">
-        <v>3</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11" s="17">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11" s="17">
-        <v>0</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>0</v>
-      </c>
-      <c r="R11" s="17">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
-        <v>197</v>
-      </c>
-      <c r="U11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12">
-        <v>60</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="16">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="16">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="16">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>135</v>
-      </c>
-      <c r="U12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="17">
-        <v>11</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
-        <v>10</v>
-      </c>
-      <c r="M13" s="16">
-        <v>0</v>
-      </c>
-      <c r="N13" s="17">
-        <v>0</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0</v>
-      </c>
-      <c r="P13" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>0</v>
-      </c>
-      <c r="R13" s="17">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>198</v>
-      </c>
-      <c r="U13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14" s="16">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="16">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>199</v>
-      </c>
-      <c r="U14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="17">
-        <v>0</v>
-      </c>
-      <c r="M15" s="16">
-        <v>0</v>
-      </c>
-      <c r="N15" s="17">
-        <v>0</v>
-      </c>
-      <c r="O15" s="16">
-        <v>0</v>
-      </c>
-      <c r="P15" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>0</v>
-      </c>
-      <c r="R15" s="17">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>200</v>
-      </c>
-      <c r="U15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16">
-        <v>30</v>
-      </c>
-      <c r="N16" s="16">
-        <v>120</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17">
-        <v>0</v>
-      </c>
-      <c r="O17" s="16">
-        <v>30</v>
-      </c>
-      <c r="P17" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>0</v>
-      </c>
-      <c r="R17" s="17">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18">
-        <v>10</v>
-      </c>
-      <c r="P18" s="16">
-        <v>12</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" s="16">
-        <v>0</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="U18" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>0</v>
-      </c>
-      <c r="R19" s="17">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>204</v>
-      </c>
-      <c r="U19" s="19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20">
-        <v>45</v>
-      </c>
-      <c r="R20" s="16">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>205</v>
-      </c>
-      <c r="U20" s="19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="17">
-        <v>17</v>
-      </c>
-      <c r="T21" t="s">
-        <v>206</v>
-      </c>
-      <c r="U21" s="19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="T22" t="s">
-        <v>207</v>
-      </c>
-      <c r="U22" s="19">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:R4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Back to Main" xr:uid="{F9D52F82-6B55-43C5-A16D-C75DDFE79706}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E35D-7DEA-4D95-8D5A-AE3ABFDB05EF}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -9622,195 +8699,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>156</v>
+      <c r="A1" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B5">
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B6">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B7">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B8">
         <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B9">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B10">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B11">
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B12">
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B13">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B14">
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B16">
         <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B18">
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -9824,14 +8901,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D42C13-1485-4A9A-830D-7E27CDB400B3}">
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -9851,135 +8928,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>156</v>
+      <c r="A1" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="20">
+        <v>234</v>
+      </c>
+      <c r="B5" s="18">
         <v>9.8705322562797404E-2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>0.12006196746707978</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>0.78123270997012284</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <f>SUM(B5:D5)</f>
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H5" s="20">
+        <v>239</v>
+      </c>
+      <c r="H5" s="18">
         <v>0.75600000000000001</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="20">
+        <v>88</v>
+      </c>
+      <c r="K5" s="18">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="20">
+        <v>235</v>
+      </c>
+      <c r="B6" s="18">
         <v>9.245534017483846E-2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>4.1714177118966203E-2</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>0.86583048270619534</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <f>SUM(B6:D6)</f>
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="28">
+        <v>240</v>
+      </c>
+      <c r="H6" s="26">
         <f>1-H5</f>
         <v>0.24399999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>249</v>
-      </c>
-      <c r="K6" s="20">
+        <v>242</v>
+      </c>
+      <c r="K6" s="18">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K7" s="20">
+        <v>243</v>
+      </c>
+      <c r="K7" s="18">
         <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="20">
+        <v>94</v>
+      </c>
+      <c r="K8" s="18">
         <v>0.03</v>
       </c>
     </row>
@@ -10005,7 +9082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941031D9-B740-4490-9906-AE5C26E1AE42}">
   <sheetPr>
     <tabColor theme="2"/>
@@ -10030,146 +9107,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>156</v>
+      <c r="A1" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="56"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="24">
+      <c r="A7" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="22">
         <v>0.25</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>0.2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="24">
+        <f>SUM(B6:B8)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="24">
+        <f>SUM(C6:C8)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="C8" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="26">
-        <f>SUM(B6:B8)</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="26">
-        <f>SUM(C6:C8)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" s="25">
+        <v>253</v>
+      </c>
+      <c r="F11" s="23">
         <v>0.14000000000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -10183,14 +9260,14 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="25">
+        <v>254</v>
+      </c>
+      <c r="F12" s="23">
         <f>1-F11</f>
         <v>0.86</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -10203,14 +9280,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E13" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+      <c r="E13" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10238,7 +9315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27728B78-E08D-49FB-AD43-569EF1E14878}">
   <sheetPr>
     <tabColor theme="2"/>
@@ -10246,7 +9323,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10258,81 +9335,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>156</v>
+      <c r="A1" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" s="31" t="s">
         <v>280</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E3" s="35" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="F4" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="20">
+        <v>262</v>
+      </c>
+      <c r="B5" s="18">
         <v>0.02</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" s="9">
+        <v>269</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.6875</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="20">
+        <v>263</v>
+      </c>
+      <c r="B6" s="18">
         <v>0.05</v>
       </c>
       <c r="E6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F6" s="9">
+        <v>278</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.6875</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="20">
+        <v>264</v>
+      </c>
+      <c r="B7" s="18">
         <f>1-SUM(B5:B6)</f>
         <v>0.92999999999999994</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="9">
+        <v>277</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.6875</v>
       </c>
     </row>
@@ -10349,4 +9426,206 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E86032-278F-46C2-8A5F-140671769490}">
+  <sheetPr>
+    <tabColor theme="2"/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S58" sqref="S58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E3" s="28"/>
+      <c r="F3" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="E4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="E6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="18">
+        <f>1-B9</f>
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F3:I3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Back to Main" xr:uid="{2435FF21-1A48-4E70-B1B5-DDCFD5411F03}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/static/examples/config.xlsx
+++ b/static/examples/config.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\yinchi\digital-hospitals\frontend\static\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YinChi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F7EE6-B42A-4282-9B77-32977D94F22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99469912-0BA3-43F2-A24F-D651DF5EEF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30624" yWindow="0" windowWidth="30912" windowHeight="25296" tabRatio="766" firstSheet="1" activeTab="9" xr2:uid="{A6D689E8-9444-4F2C-A237-DAB84596CE57}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="41268" windowHeight="21480" tabRatio="766" firstSheet="1" activeTab="10" xr2:uid="{A6D689E8-9444-4F2C-A237-DAB84596CE57}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Arrival Schedules" sheetId="1" r:id="rId2"/>
     <sheet name="Resource Allocation" sheetId="3" r:id="rId3"/>
     <sheet name="Task Durations" sheetId="4" r:id="rId4"/>
-    <sheet name="Batch Sizes" sheetId="6" r:id="rId5"/>
-    <sheet name="Reception Variables" sheetId="7" r:id="rId6"/>
-    <sheet name="Cut-up Variables" sheetId="8" r:id="rId7"/>
-    <sheet name="Processing Variables" sheetId="9" r:id="rId8"/>
-    <sheet name="Microtomy Variables" sheetId="10" r:id="rId9"/>
-    <sheet name="Locations" sheetId="5" r:id="rId10"/>
+    <sheet name="Locations" sheetId="5" r:id="rId5"/>
+    <sheet name="Batch Sizes" sheetId="6" r:id="rId6"/>
+    <sheet name="Reception Variables" sheetId="7" r:id="rId7"/>
+    <sheet name="Cut-up Variables" sheetId="8" r:id="rId8"/>
+    <sheet name="Processing Variables" sheetId="9" r:id="rId9"/>
+    <sheet name="Microtomy Variables" sheetId="10" r:id="rId10"/>
     <sheet name="Bootstrap Mock Generator" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="294">
   <si>
     <t>CANCER PATHWAY</t>
   </si>
@@ -2655,10 +2655,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2684,7 +2684,7 @@
         <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
         <v>292</v>
@@ -2751,6 +2751,11 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2771,908 +2776,212 @@
     <hyperlink ref="A9" location="'Cut-up Variables'!A1" display="Cut-up Variables" xr:uid="{74B638BB-9692-45CD-83B1-84E1864E2D6F}"/>
     <hyperlink ref="A10" location="'Processing Variables'!A1" display="Processing Variables" xr:uid="{9911F93C-F368-4491-A4C9-D6D25C52A0AB}"/>
     <hyperlink ref="A11" location="'Microtomy Variables'!A1" display="Microtomy Variables" xr:uid="{A14917F9-9A08-47BB-BD1E-A35E360D0F3C}"/>
-    <hyperlink ref="A13" location="'Bootstrap Mock Generator'!A1" display="Bootstrap Mock Generator" xr:uid="{FBA6849C-90D6-4633-B1E9-3D2FFC8C7E6A}"/>
+    <hyperlink ref="A14" location="'Bootstrap Mock Generator'!A1" display="Bootstrap Mock Generator" xr:uid="{FBA6849C-90D6-4633-B1E9-3D2FFC8C7E6A}"/>
+    <hyperlink ref="A13" location="'Specimen Bootstrap'!A1" display="Specimen Bootstrap" xr:uid="{A7C7A723-034C-4288-948D-207274CF6F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871FFE81-D409-4F79-B38C-13C5390DFCFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E86032-278F-46C2-8A5F-140671769490}">
   <sheetPr>
-    <tabColor theme="5"/>
+    <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD59" sqref="AD59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+    <row r="2" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-    </row>
-    <row r="5" spans="1:21" ht="109.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E3" s="28"/>
+      <c r="F3" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="E4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="E6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="E7" s="14">
-        <v>13</v>
-      </c>
-      <c r="F7" s="15">
-        <v>14</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="H7" s="15">
-        <v>20</v>
-      </c>
-      <c r="I7" s="14">
-        <v>7</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>0</v>
-      </c>
-      <c r="R7" s="15">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>185</v>
-      </c>
-      <c r="U7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" t="s">
+        <v>258</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="14">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>186</v>
-      </c>
-      <c r="U8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>10</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="15">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>0</v>
-      </c>
-      <c r="R9" s="15">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
-        <v>188</v>
-      </c>
-      <c r="U9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="14">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>189</v>
-      </c>
-      <c r="U10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15">
-        <v>3</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="15">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
-        <v>0</v>
-      </c>
-      <c r="P11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>0</v>
-      </c>
-      <c r="R11" s="15">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
-        <v>190</v>
-      </c>
-      <c r="U11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12">
-        <v>60</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="14">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>128</v>
-      </c>
-      <c r="U12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15">
-        <v>11</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15">
-        <v>10</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0</v>
-      </c>
-      <c r="N13" s="15">
-        <v>0</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0</v>
-      </c>
-      <c r="P13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0</v>
-      </c>
-      <c r="R13" s="15">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>191</v>
-      </c>
-      <c r="U13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="14">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>192</v>
-      </c>
-      <c r="U14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="15">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>193</v>
-      </c>
-      <c r="U15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16">
-        <v>30</v>
-      </c>
-      <c r="N16" s="14">
-        <v>120</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="15">
-        <v>0</v>
-      </c>
-      <c r="O17" s="14">
-        <v>30</v>
-      </c>
-      <c r="P17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>0</v>
-      </c>
-      <c r="R17" s="15">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18">
-        <v>10</v>
-      </c>
-      <c r="P18" s="14">
-        <v>12</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" s="14">
-        <v>0</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>0</v>
-      </c>
-      <c r="R19" s="15">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>197</v>
-      </c>
-      <c r="U19" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="18">
+        <f>1-B9</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20">
-        <v>45</v>
-      </c>
-      <c r="R20" s="14">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>198</v>
-      </c>
-      <c r="U20" s="17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="15">
-        <v>17</v>
-      </c>
-      <c r="T21" t="s">
-        <v>199</v>
-      </c>
-      <c r="U21" s="17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="T22" t="s">
-        <v>200</v>
-      </c>
-      <c r="U22" s="17">
-        <v>0.25</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:R4"/>
+  <mergeCells count="6">
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Back to Main" xr:uid="{F9D52F82-6B55-43C5-A16D-C75DDFE79706}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Back to Main" xr:uid="{2435FF21-1A48-4E70-B1B5-DDCFD5411F03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3683,8 +2992,8 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3756,10 +3065,10 @@
         <v>188</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -8683,6 +7992,905 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871FFE81-D409-4F79-B38C-13C5390DFCFD}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="1:21" ht="109.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14">
+        <v>20</v>
+      </c>
+      <c r="H7" s="15">
+        <v>20</v>
+      </c>
+      <c r="I7" s="14">
+        <v>7</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>3</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>185</v>
+      </c>
+      <c r="U7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>186</v>
+      </c>
+      <c r="U8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>10</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>188</v>
+      </c>
+      <c r="U9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>189</v>
+      </c>
+      <c r="U10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15">
+        <v>3</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="15">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>190</v>
+      </c>
+      <c r="U11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12">
+        <v>60</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>128</v>
+      </c>
+      <c r="U12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15">
+        <v>11</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>10</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="15">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>191</v>
+      </c>
+      <c r="U13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>192</v>
+      </c>
+      <c r="U14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>193</v>
+      </c>
+      <c r="U15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16" s="14">
+        <v>120</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="15">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>30</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>197</v>
+      </c>
+      <c r="U19" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20">
+        <v>45</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>198</v>
+      </c>
+      <c r="U20" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="15">
+        <v>17</v>
+      </c>
+      <c r="T21" t="s">
+        <v>199</v>
+      </c>
+      <c r="U21" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="T22" t="s">
+        <v>200</v>
+      </c>
+      <c r="U22" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:R4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Back to Main" xr:uid="{F9D52F82-6B55-43C5-A16D-C75DDFE79706}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E35D-7DEA-4D95-8D5A-AE3ABFDB05EF}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -8901,7 +9109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D42C13-1485-4A9A-830D-7E27CDB400B3}">
   <sheetPr>
     <tabColor theme="2"/>
@@ -9082,7 +9290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941031D9-B740-4490-9906-AE5C26E1AE42}">
   <sheetPr>
     <tabColor theme="2"/>
@@ -9315,7 +9523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27728B78-E08D-49FB-AD43-569EF1E14878}">
   <sheetPr>
     <tabColor theme="2"/>
@@ -9426,206 +9634,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E86032-278F-46C2-8A5F-140671769490}">
-  <sheetPr>
-    <tabColor theme="2"/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S58" sqref="S58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E3" s="28"/>
-      <c r="F3" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="E4" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="E5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F5" t="s">
-        <v>258</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="E6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="18">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="18">
-        <f>1-B9</f>
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F3:I3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Back to Main" xr:uid="{2435FF21-1A48-4E70-B1B5-DDCFD5411F03}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/static/examples/config.xlsx
+++ b/static/examples/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YinChi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\yinchi\digital-hospitals\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99469912-0BA3-43F2-A24F-D651DF5EEF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B5D908-1806-4013-A41B-4B1C456F3835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="41268" windowHeight="21480" tabRatio="766" firstSheet="1" activeTab="10" xr2:uid="{A6D689E8-9444-4F2C-A237-DAB84596CE57}"/>
+    <workbookView xWindow="16920" yWindow="2676" windowWidth="41268" windowHeight="21480" tabRatio="766" firstSheet="1" activeTab="4" xr2:uid="{A6D689E8-9444-4F2C-A237-DAB84596CE57}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Bootstrap Mock Generator" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="LocationLabels">Locations!$B$7:$B$22</definedName>
     <definedName name="LocationNames">Locations!$A$7:$A$22</definedName>
     <definedName name="NumBlocksLargeSurgical">'Cut-up Variables'!$G$12:$J$12</definedName>
     <definedName name="NumBlocksMega">'Cut-up Variables'!$G$11:$J$11</definedName>
@@ -53,7 +54,7 @@
     <definedName name="ProbPriorityNonCancer">'Reception Variables'!$C$6</definedName>
     <definedName name="ProbUrgentCancer">'Reception Variables'!$B$5</definedName>
     <definedName name="ProbUrgentNonCancer">'Reception Variables'!$B$6</definedName>
-    <definedName name="RunnerTimes">Locations!$B$6:$R$22</definedName>
+    <definedName name="RunnerTimes">Locations!$C$7:$R$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2992,7 +2993,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -7998,8 +7999,8 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/static/examples/config.xlsx
+++ b/static/examples/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\yinchi\digital-hospitals\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B5D908-1806-4013-A41B-4B1C456F3835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E464264-41D3-47AD-82D5-2EE637C9B05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="2676" windowWidth="41268" windowHeight="21480" tabRatio="766" firstSheet="1" activeTab="4" xr2:uid="{A6D689E8-9444-4F2C-A237-DAB84596CE57}"/>
+    <workbookView xWindow="16920" yWindow="2676" windowWidth="41268" windowHeight="21480" tabRatio="766" xr2:uid="{A6D689E8-9444-4F2C-A237-DAB84596CE57}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <definedName name="NumSlidesMegas">'Microtomy Variables'!$F$8:$I$8</definedName>
     <definedName name="NumSlidesSerials">'Microtomy Variables'!$F$6:$I$6</definedName>
     <definedName name="OptSpecimenBootstrap">Main!$D$2</definedName>
+    <definedName name="OptTravelTimes">Main!$D$3</definedName>
     <definedName name="ProbBMSCutup">'Cut-up Variables'!$B$6</definedName>
     <definedName name="ProbBMSCutupUrgent">'Cut-up Variables'!$C$6</definedName>
     <definedName name="ProbDecalcBone">'Processing Variables'!$B$5</definedName>
@@ -2658,8 +2659,8 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2699,7 +2700,7 @@
         <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
         <v>293</v>
@@ -7999,8 +8000,8 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
